--- a/100-units/100-output_df_test.xlsx
+++ b/100-units/100-output_df_test.xlsx
@@ -464,13 +464,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002482491545379162</v>
+        <v>-0.002672480186447501</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.162764272879019e-06</v>
+        <v>7.142150346954471e-06</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>0.005383</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01330752950161695</v>
+        <v>0.02812959067523479</v>
       </c>
       <c r="D3" t="n">
         <v>0.01039000138827146</v>
       </c>
       <c r="E3" t="n">
-        <v>8.511970292161325e-06</v>
+        <v>0.0003146930280701443</v>
       </c>
     </row>
     <row r="4">
@@ -498,13 +498,13 @@
         <v>0.010766</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07983346283435822</v>
+        <v>0.0853758305311203</v>
       </c>
       <c r="D4" t="n">
         <v>0.07090817555180537</v>
       </c>
       <c r="E4" t="n">
-        <v>7.966075307609957e-05</v>
+        <v>0.0002093130406004961</v>
       </c>
     </row>
     <row r="5">
@@ -515,13 +515,13 @@
         <v>0.016149</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1569451242685318</v>
+        <v>0.1572009772062302</v>
       </c>
       <c r="D5" t="n">
         <v>0.1551886092794283</v>
       </c>
       <c r="E5" t="n">
-        <v>3.085344906945297e-06</v>
+        <v>4.049624672820866e-06</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +532,13 @@
         <v>0.021532</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2270147353410721</v>
+        <v>0.2162564396858215</v>
       </c>
       <c r="D6" t="n">
         <v>0.2194337569956537</v>
       </c>
       <c r="E6" t="n">
-        <v>5.747123267370235e-05</v>
+        <v>1.009534528735916e-05</v>
       </c>
     </row>
     <row r="7">
@@ -549,13 +549,13 @@
         <v>0.026915</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2515199482440948</v>
+        <v>0.2240014970302582</v>
       </c>
       <c r="D7" t="n">
         <v>0.2381569179248022</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001785705793143345</v>
+        <v>0.0002003759407016935</v>
       </c>
     </row>
     <row r="8">
@@ -566,13 +566,13 @@
         <v>0.032782</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2310408502817154</v>
+        <v>0.2221589535474777</v>
       </c>
       <c r="D8" t="n">
         <v>0.232077797519008</v>
       </c>
       <c r="E8" t="n">
-        <v>1.075259572928782e-06</v>
+        <v>9.838346573156265e-05</v>
       </c>
     </row>
     <row r="9">
@@ -583,13 +583,13 @@
         <v>0.038648</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2080052644014359</v>
+        <v>0.1983528286218643</v>
       </c>
       <c r="D9" t="n">
         <v>0.2089625726146107</v>
       </c>
       <c r="E9" t="n">
-        <v>9.164390150120369e-07</v>
+        <v>0.0001125666675916181</v>
       </c>
     </row>
     <row r="10">
@@ -600,13 +600,13 @@
         <v>0.044515</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1816763430833817</v>
+        <v>0.1725974678993225</v>
       </c>
       <c r="D10" t="n">
         <v>0.1821374471894741</v>
       </c>
       <c r="E10" t="n">
-        <v>2.126169966553249e-07</v>
+        <v>9.101120485652145e-05</v>
       </c>
     </row>
     <row r="11">
@@ -617,13 +617,13 @@
         <v>0.050382</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1540810614824295</v>
+        <v>0.1580250263214111</v>
       </c>
       <c r="D11" t="n">
         <v>0.1570633671496917</v>
       </c>
       <c r="E11" t="n">
-        <v>8.894147092984286e-06</v>
+        <v>9.24788362552081e-07</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         <v>0.056248</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1339626461267471</v>
+        <v>0.1350670158863068</v>
       </c>
       <c r="D12" t="n">
         <v>0.1351141714939549</v>
       </c>
       <c r="E12" t="n">
-        <v>1.326010671323009e-06</v>
+        <v>2.223651332665998e-09</v>
       </c>
     </row>
     <row r="13">
@@ -651,13 +651,13 @@
         <v>0.062625</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1127693802118301</v>
+        <v>0.1118043437600136</v>
       </c>
       <c r="D13" t="n">
         <v>0.1151924094307864</v>
       </c>
       <c r="E13" t="n">
-        <v>5.871070595915798e-06</v>
+        <v>1.147898898946929e-05</v>
       </c>
     </row>
     <row r="14">
@@ -668,13 +668,13 @@
         <v>0.06900299999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09472920000553131</v>
+        <v>0.09252462536096573</v>
       </c>
       <c r="D14" t="n">
         <v>0.09898995712650538</v>
       </c>
       <c r="E14" t="n">
-        <v>1.815405124393123e-05</v>
+        <v>4.180051483849605e-05</v>
       </c>
     </row>
     <row r="15">
@@ -685,13 +685,13 @@
         <v>0.07537999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08149515092372894</v>
+        <v>0.08645476400852203</v>
       </c>
       <c r="D15" t="n">
         <v>0.08624194975175113</v>
       </c>
       <c r="E15" t="n">
-        <v>2.253209911371283e-05</v>
+        <v>4.528990788495133e-08</v>
       </c>
     </row>
     <row r="16">
@@ -702,13 +702,13 @@
         <v>0.08175700000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07004214823246002</v>
+        <v>0.07325592637062073</v>
       </c>
       <c r="D16" t="n">
         <v>0.07618502156745835</v>
       </c>
       <c r="E16" t="n">
-        <v>3.773489280983348e-05</v>
+        <v>8.579598672137228e-06</v>
       </c>
     </row>
     <row r="17">
@@ -719,13 +719,13 @@
         <v>0.088134</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06058846786618233</v>
+        <v>0.06206624954938889</v>
       </c>
       <c r="D17" t="n">
         <v>0.06782424144092992</v>
       </c>
       <c r="E17" t="n">
-        <v>5.235641922501563e-05</v>
+        <v>3.315447062305236e-05</v>
       </c>
     </row>
     <row r="18">
@@ -736,13 +736,13 @@
         <v>0.09504700000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05285705998539925</v>
+        <v>0.05495639890432358</v>
       </c>
       <c r="D18" t="n">
         <v>0.06047524504006395</v>
       </c>
       <c r="E18" t="n">
-        <v>5.803674352711664e-05</v>
+        <v>3.045766266997643e-05</v>
       </c>
     </row>
     <row r="19">
@@ -753,13 +753,13 @@
         <v>0.10196</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04716067388653755</v>
+        <v>0.05020786821842194</v>
       </c>
       <c r="D19" t="n">
         <v>0.05449483680408607</v>
       </c>
       <c r="E19" t="n">
-        <v>5.378994570114384e-05</v>
+        <v>1.837809965447117e-05</v>
       </c>
     </row>
     <row r="20">
@@ -770,13 +770,13 @@
         <v>0.10887</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04302207008004189</v>
+        <v>0.04532508552074432</v>
       </c>
       <c r="D20" t="n">
         <v>0.04969382716130066</v>
       </c>
       <c r="E20" t="n">
-        <v>4.451234255132665e-05</v>
+        <v>1.90859035219309e-05</v>
       </c>
     </row>
     <row r="21">
@@ -787,13 +787,13 @@
         <v>0.11578</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03882864490151405</v>
+        <v>0.04110579192638397</v>
       </c>
       <c r="D21" t="n">
         <v>0.04578871878359028</v>
       </c>
       <c r="E21" t="n">
-        <v>4.844262844395967e-05</v>
+        <v>2.192980394994417e-05</v>
       </c>
     </row>
     <row r="22">
@@ -804,13 +804,13 @@
         <v>0.1227</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03651750460267067</v>
+        <v>0.03722302615642548</v>
       </c>
       <c r="D22" t="n">
         <v>0.04248230373476976</v>
       </c>
       <c r="E22" t="n">
-        <v>3.557882868629004e-05</v>
+        <v>2.766000064607489e-05</v>
       </c>
     </row>
     <row r="23">
@@ -821,13 +821,13 @@
         <v>0.13017</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03359179571270943</v>
+        <v>0.03444002568721771</v>
       </c>
       <c r="D23" t="n">
         <v>0.03932673220874238</v>
       </c>
       <c r="E23" t="n">
-        <v>3.288949661353073e-05</v>
+        <v>2.387990062751172e-05</v>
       </c>
     </row>
     <row r="24">
@@ -838,13 +838,13 @@
         <v>0.13764</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03136738017201424</v>
+        <v>0.0304428618401289</v>
       </c>
       <c r="D24" t="n">
         <v>0.03667430244907003</v>
       </c>
       <c r="E24" t="n">
-        <v>2.816342405471105e-05</v>
+        <v>3.883085206276062e-05</v>
       </c>
     </row>
     <row r="25">
@@ -855,13 +855,13 @@
         <v>0.14511</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02815872803330421</v>
+        <v>0.02835535816848278</v>
       </c>
       <c r="D25" t="n">
         <v>0.03444053659203948</v>
       </c>
       <c r="E25" t="n">
-        <v>3.946111876859964e-05</v>
+        <v>3.702939644652001e-05</v>
       </c>
     </row>
     <row r="26">
@@ -872,13 +872,13 @@
         <v>0.15258</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02816995605826378</v>
+        <v>0.02720692567527294</v>
       </c>
       <c r="D26" t="n">
         <v>0.03254163445349085</v>
       </c>
       <c r="E26" t="n">
-        <v>1.911157199129513e-05</v>
+        <v>2.84591177483952e-05</v>
       </c>
     </row>
     <row r="27">
@@ -889,13 +889,13 @@
         <v>0.16005</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02136373892426491</v>
+        <v>0.0253866296261549</v>
       </c>
       <c r="D27" t="n">
         <v>0.03087508613872102</v>
       </c>
       <c r="E27" t="n">
-        <v>9.046572583394204e-05</v>
+        <v>3.012315489032946e-05</v>
       </c>
     </row>
     <row r="28">
@@ -906,13 +906,13 @@
         <v>0.16809</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02148669213056564</v>
+        <v>0.02370899729430676</v>
       </c>
       <c r="D28" t="n">
         <v>0.02917532250083574</v>
       </c>
       <c r="E28" t="n">
-        <v>5.91150369706397e-05</v>
+        <v>2.988071126353416e-05</v>
       </c>
     </row>
     <row r="29">
@@ -923,13 +923,13 @@
         <v>0.17614</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02013411745429039</v>
+        <v>0.02210165373980999</v>
       </c>
       <c r="D29" t="n">
         <v>0.02768193105790962</v>
       </c>
       <c r="E29" t="n">
-        <v>5.696949019497953e-05</v>
+        <v>3.113949494689722e-05</v>
       </c>
     </row>
     <row r="30">
@@ -940,13 +940,13 @@
         <v>0.18418</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01970721408724785</v>
+        <v>0.02079205028712749</v>
       </c>
       <c r="D30" t="n">
         <v>0.02636559377428162</v>
       </c>
       <c r="E30" t="n">
-        <v>4.433402005670396e-05</v>
+        <v>3.106438700319818e-05</v>
       </c>
     </row>
     <row r="31">
@@ -957,13 +957,13 @@
         <v>0.19223</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01980692520737648</v>
+        <v>0.01981471292674541</v>
       </c>
       <c r="D31" t="n">
         <v>0.02522142912739482</v>
       </c>
       <c r="E31" t="n">
-        <v>2.931685269989398e-05</v>
+        <v>2.923258007436475e-05</v>
       </c>
     </row>
     <row r="32">
@@ -974,13 +974,13 @@
         <v>0.20028</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01822474971413612</v>
+        <v>0.01889519207179546</v>
       </c>
       <c r="D32" t="n">
         <v>0.02422735568118357</v>
       </c>
       <c r="E32" t="n">
-        <v>3.603127839563361e-05</v>
+        <v>2.84319687572828e-05</v>
       </c>
     </row>
     <row r="33">
@@ -991,13 +991,13 @@
         <v>0.20891</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01688999682664871</v>
+        <v>0.01796726696193218</v>
       </c>
       <c r="D33" t="n">
         <v>0.02321902946616803</v>
       </c>
       <c r="E33" t="n">
-        <v>4.005665415210087e-05</v>
+        <v>2.758100940089758e-05</v>
       </c>
     </row>
     <row r="34">
@@ -1008,13 +1008,13 @@
         <v>0.21755</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01564530655741692</v>
+        <v>0.01706005446612835</v>
       </c>
       <c r="D34" t="n">
         <v>0.02229139752729517</v>
       </c>
       <c r="E34" t="n">
-        <v>4.417052517989728e-05</v>
+        <v>2.736695022361825e-05</v>
       </c>
     </row>
     <row r="35">
@@ -1025,13 +1025,13 @@
         <v>0.22618</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0144268749281764</v>
+        <v>0.01627017371356487</v>
       </c>
       <c r="D35" t="n">
         <v>0.02142267097375047</v>
       </c>
       <c r="E35" t="n">
-        <v>4.894116231126976e-05</v>
+        <v>2.654822801622009e-05</v>
       </c>
     </row>
     <row r="36">
@@ -1042,13 +1042,13 @@
         <v>0.23482</v>
       </c>
       <c r="C36" t="n">
-        <v>0.01351999770849943</v>
+        <v>0.01528923027217388</v>
       </c>
       <c r="D36" t="n">
         <v>0.02061125282591447</v>
       </c>
       <c r="E36" t="n">
-        <v>5.028589914026495e-05</v>
+        <v>2.832392406252348e-05</v>
       </c>
     </row>
     <row r="37">
@@ -1059,13 +1059,13 @@
         <v>0.24345</v>
       </c>
       <c r="C37" t="n">
-        <v>0.01272702496498823</v>
+        <v>0.01421664468944073</v>
       </c>
       <c r="D37" t="n">
         <v>0.01985002784573097</v>
       </c>
       <c r="E37" t="n">
-        <v>5.073717003906936e-05</v>
+        <v>3.173500578557462e-05</v>
       </c>
     </row>
     <row r="38">
@@ -1076,13 +1076,13 @@
         <v>0.25269</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01281218510121107</v>
+        <v>0.01312313787639141</v>
       </c>
       <c r="D38" t="n">
         <v>0.01905841476595632</v>
       </c>
       <c r="E38" t="n">
-        <v>3.901538502474352e-05</v>
+        <v>3.522751175580328e-05</v>
       </c>
     </row>
     <row r="39">
@@ -1093,13 +1093,13 @@
         <v>0.26192</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0113426772877574</v>
+        <v>0.01205827109515667</v>
       </c>
       <c r="D39" t="n">
         <v>0.01833416552662</v>
       </c>
       <c r="E39" t="n">
-        <v>4.888090779415412e-05</v>
+        <v>3.938685091487244e-05</v>
       </c>
     </row>
     <row r="40">
@@ -1110,13 +1110,13 @@
         <v>0.27115</v>
       </c>
       <c r="C40" t="n">
-        <v>0.009785491041839123</v>
+        <v>0.01109494082629681</v>
       </c>
       <c r="D40" t="n">
         <v>0.01766175674741388</v>
       </c>
       <c r="E40" t="n">
-        <v>6.203556146481305e-05</v>
+        <v>4.31230713418367e-05</v>
       </c>
     </row>
     <row r="41">
@@ -1127,13 +1127,13 @@
         <v>0.28038</v>
       </c>
       <c r="C41" t="n">
-        <v>0.01036300044506788</v>
+        <v>0.009974224492907524</v>
       </c>
       <c r="D41" t="n">
         <v>0.01703297431285461</v>
       </c>
       <c r="E41" t="n">
-        <v>4.448855139695783e-05</v>
+        <v>4.982594902060301e-05</v>
       </c>
     </row>
     <row r="42">
@@ -1144,13 +1144,13 @@
         <v>0.28961</v>
       </c>
       <c r="C42" t="n">
-        <v>0.009437370114028454</v>
+        <v>0.008711321279406548</v>
       </c>
       <c r="D42" t="n">
         <v>0.0164305058220557</v>
       </c>
       <c r="E42" t="n">
-        <v>4.890394703088572e-05</v>
+        <v>5.95858100034736e-05</v>
       </c>
     </row>
     <row r="43">
@@ -1161,13 +1161,13 @@
         <v>0.29945</v>
       </c>
       <c r="C43" t="n">
-        <v>0.008673700504004955</v>
+        <v>0.008180154487490654</v>
       </c>
       <c r="D43" t="n">
         <v>0.01573081698321859</v>
       </c>
       <c r="E43" t="n">
-        <v>4.980289300118867e-05</v>
+        <v>5.701250412439245e-05</v>
       </c>
     </row>
     <row r="44">
@@ -1178,13 +1178,13 @@
         <v>0.30928</v>
       </c>
       <c r="C44" t="n">
-        <v>0.008032443933188915</v>
+        <v>0.007587028667330742</v>
       </c>
       <c r="D44" t="n">
         <v>0.01503124143095429</v>
       </c>
       <c r="E44" t="n">
-        <v>4.898316641472688e-05</v>
+        <v>5.541630367009575e-05</v>
       </c>
     </row>
     <row r="45">
@@ -1195,13 +1195,13 @@
         <v>0.31911</v>
       </c>
       <c r="C45" t="n">
-        <v>0.007562669925391674</v>
+        <v>0.007029039785265923</v>
       </c>
       <c r="D45" t="n">
         <v>0.01435199675106484</v>
       </c>
       <c r="E45" t="n">
-        <v>4.609495874580526e-05</v>
+        <v>5.362569872294288e-05</v>
       </c>
     </row>
     <row r="46">
@@ -1212,13 +1212,13 @@
         <v>0.32894</v>
       </c>
       <c r="C46" t="n">
-        <v>0.006622987799346447</v>
+        <v>0.006271166726946831</v>
       </c>
       <c r="D46" t="n">
         <v>0.01372373333200477</v>
       </c>
       <c r="E46" t="n">
-        <v>5.042058711956712e-05</v>
+        <v>5.554074900282481e-05</v>
       </c>
     </row>
     <row r="47">
@@ -1229,13 +1229,13 @@
         <v>0.33877</v>
       </c>
       <c r="C47" t="n">
-        <v>0.005604240112006664</v>
+        <v>0.00544138066470623</v>
       </c>
       <c r="D47" t="n">
         <v>0.01316267802790205</v>
       </c>
       <c r="E47" t="n">
-        <v>5.712998372844497e-05</v>
+        <v>5.961843297089471e-05</v>
       </c>
     </row>
     <row r="48">
@@ -1246,13 +1246,13 @@
         <v>0.34919</v>
       </c>
       <c r="C48" t="n">
-        <v>0.004864620976150036</v>
+        <v>0.004565848037600517</v>
       </c>
       <c r="D48" t="n">
         <v>0.01259800172015396</v>
       </c>
       <c r="E48" t="n">
-        <v>5.980517773173069e-05</v>
+        <v>6.451549278015684e-05</v>
       </c>
     </row>
     <row r="49">
@@ -1263,13 +1263,13 @@
         <v>0.35961</v>
       </c>
       <c r="C49" t="n">
-        <v>0.004263016395270824</v>
+        <v>0.003837151685729623</v>
       </c>
       <c r="D49" t="n">
         <v>0.01209225904637843</v>
       </c>
       <c r="E49" t="n">
-        <v>6.129704048992244e-05</v>
+        <v>6.814679753583812e-05</v>
       </c>
     </row>
     <row r="50">
@@ -1280,13 +1280,13 @@
         <v>0.37004</v>
       </c>
       <c r="C50" t="n">
-        <v>0.003811839036643505</v>
+        <v>0.003332210937514901</v>
       </c>
       <c r="D50" t="n">
         <v>0.01162567940867849</v>
       </c>
       <c r="E50" t="n">
-        <v>6.105610135964383e-05</v>
+        <v>6.878161928218452e-05</v>
       </c>
     </row>
     <row r="51">
@@ -1297,13 +1297,13 @@
         <v>0.38046</v>
       </c>
       <c r="C51" t="n">
-        <v>0.003333109430968761</v>
+        <v>0.002786828437820077</v>
       </c>
       <c r="D51" t="n">
         <v>0.01119307155525773</v>
       </c>
       <c r="E51" t="n">
-        <v>6.177900459525715e-05</v>
+        <v>7.06649233494679e-05</v>
       </c>
     </row>
     <row r="52">
@@ -1314,13 +1314,13 @@
         <v>0.39088</v>
       </c>
       <c r="C52" t="n">
-        <v>0.002908277325332165</v>
+        <v>0.002303852001205087</v>
       </c>
       <c r="D52" t="n">
         <v>0.01078484525532466</v>
       </c>
       <c r="E52" t="n">
-        <v>6.204032235578627e-05</v>
+        <v>7.192724657642171e-05</v>
       </c>
     </row>
     <row r="53">
@@ -1331,13 +1331,13 @@
         <v>0.40188</v>
       </c>
       <c r="C53" t="n">
-        <v>0.002507138065993786</v>
+        <v>0.001842720666900277</v>
       </c>
       <c r="D53" t="n">
         <v>0.01034557013215292</v>
       </c>
       <c r="E53" t="n">
-        <v>6.144101725579176e-05</v>
+        <v>7.229844902874716e-05</v>
       </c>
     </row>
     <row r="54">
@@ -1348,13 +1348,13 @@
         <v>0.41288</v>
       </c>
       <c r="C54" t="n">
-        <v>0.002176987938582897</v>
+        <v>0.001367641845718026</v>
       </c>
       <c r="D54" t="n">
         <v>0.009931360496498674</v>
       </c>
       <c r="E54" t="n">
-        <v>6.013029376695727e-05</v>
+        <v>7.333727712972832e-05</v>
       </c>
     </row>
     <row r="55">
@@ -1365,13 +1365,13 @@
         <v>0.42388</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0002700565382838249</v>
+        <v>0.0009979440364986658</v>
       </c>
       <c r="D55" t="n">
         <v>0.009551130316090312</v>
       </c>
       <c r="E55" t="n">
-        <v>8.613833046908718e-05</v>
+        <v>7.315699553339478e-05</v>
       </c>
     </row>
     <row r="56">
@@ -1382,13 +1382,13 @@
         <v>0.43488</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.001253110356628895</v>
+        <v>0.0005242957267910242</v>
       </c>
       <c r="D56" t="n">
         <v>0.009217484435503598</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0001096333553010321</v>
+        <v>7.557152992528779e-05</v>
       </c>
     </row>
     <row r="57">
@@ -1399,13 +1399,13 @@
         <v>0.44588</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.002045971341431141</v>
+        <v>6.560818292200565e-05</v>
       </c>
       <c r="D57" t="n">
         <v>0.008930504600148286</v>
       </c>
       <c r="E57" t="n">
-        <v>0.000120483024096072</v>
+        <v>7.858638848815134e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1416,13 +1416,13 @@
         <v>0.45743</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.002483737654983997</v>
+        <v>-0.0002749429550021887</v>
       </c>
       <c r="D58" t="n">
         <v>0.008642215669082135</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0001237868373692982</v>
+        <v>7.951571792708143e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1433,13 +1433,13 @@
         <v>0.46898</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.003314686007797718</v>
+        <v>-0.0005922482814639807</v>
       </c>
       <c r="D59" t="n">
         <v>0.008348701113469824</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0001360345991405496</v>
+        <v>7.994057608276717e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1450,13 +1450,13 @@
         <v>0.48053</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.004451942630112171</v>
+        <v>-0.0007952318992465734</v>
       </c>
       <c r="D60" t="n">
         <v>0.008042294100334852</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0001561059514764515</v>
+        <v>7.810186579327766e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1467,13 +1467,13 @@
         <v>0.49208</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.005414110608398914</v>
+        <v>-0.00109993084333837</v>
       </c>
       <c r="D61" t="n">
         <v>0.007726468833800537</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0001726748280767548</v>
+        <v>7.790533126059779e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1484,13 +1484,13 @@
         <v>0.50363</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.00547675509005785</v>
+        <v>-0.001419501146301627</v>
       </c>
       <c r="D62" t="n">
         <v>0.007405495682209102</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0001659523849595725</v>
+        <v>7.788056902322445e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1501,13 +1501,13 @@
         <v>0.5157</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.005563330836594105</v>
+        <v>-0.0017777846660465</v>
       </c>
       <c r="D63" t="n">
         <v>0.007072564193310123</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0001596658432067584</v>
+        <v>7.832867493231509e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1518,13 +1518,13 @@
         <v>0.52777</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.005692911334335804</v>
+        <v>-0.002180175622925162</v>
       </c>
       <c r="D64" t="n">
         <v>0.00674091320933669</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0001545999927828325</v>
+        <v>7.958582595310714e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1535,13 +1535,13 @@
         <v>0.53984</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.005741667933762074</v>
+        <v>-0.002515392145141959</v>
       </c>
       <c r="D65" t="n">
         <v>0.006417462197855993</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0001478444455576224</v>
+        <v>7.97958867132174e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1552,13 +1552,13 @@
         <v>0.55191</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.00589327234774828</v>
+        <v>-0.002956406911835074</v>
       </c>
       <c r="D66" t="n">
         <v>0.006107678664090732</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0001440228251885598</v>
+        <v>8.215764732770626e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1569,13 +1569,13 @@
         <v>0.56398</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.006047767587006092</v>
+        <v>-0.003464298089966178</v>
       </c>
       <c r="D67" t="n">
         <v>0.005814615892772368</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0001407161418213209</v>
+        <v>8.609824469906091e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1586,13 +1586,13 @@
         <v>0.57652</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.006297689862549305</v>
+        <v>-0.004032837226986885</v>
       </c>
       <c r="D68" t="n">
         <v>0.0055114694491683</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0001394562436495266</v>
+        <v>9.109378992850046e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1603,13 +1603,13 @@
         <v>0.58906</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.006683957763016224</v>
+        <v>-0.004047112539410591</v>
       </c>
       <c r="D69" t="n">
         <v>0.005231351025806199</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0001419745835329889</v>
+        <v>8.608988613105548e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1620,13 +1620,13 @@
         <v>0.6016100000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.007000637240707874</v>
+        <v>-0.00400690920650959</v>
       </c>
       <c r="D70" t="n">
         <v>0.004966909049659527</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0001432221642120865</v>
+        <v>8.052941409475413e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1637,13 +1637,13 @@
         <v>0.61415</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.007448208518326283</v>
+        <v>-0.004383431747555733</v>
       </c>
       <c r="D71" t="n">
         <v>0.004713889965087027</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0001479166395202443</v>
+        <v>8.276126234332139e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1654,13 +1654,13 @@
         <v>0.62669</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.007919353432953358</v>
+        <v>-0.005287157371640205</v>
       </c>
       <c r="D72" t="n">
         <v>0.004464704382695131</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0001533648879813244</v>
+        <v>9.509880767566825e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1671,13 +1671,13 @@
         <v>0.63966</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.008343380875885487</v>
+        <v>-0.005897806957364082</v>
       </c>
       <c r="D73" t="n">
         <v>0.004206465599486074</v>
       </c>
       <c r="E73" t="n">
-        <v>0.000157498646555396</v>
+        <v>0.0001020963239031152</v>
       </c>
     </row>
     <row r="74">
@@ -1688,13 +1688,13 @@
         <v>0.65262</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.008702528662979603</v>
+        <v>-0.005883799865841866</v>
       </c>
       <c r="D74" t="n">
         <v>0.003950116415473106</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0001600894274812935</v>
+        <v>9.670590942791167e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1705,13 +1705,13 @@
         <v>0.6655800000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.008941394276916981</v>
+        <v>-0.00574718602001667</v>
       </c>
       <c r="D75" t="n">
         <v>0.003696352135299198</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0001597126343794829</v>
+        <v>8.918041289090664e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1722,13 +1722,13 @@
         <v>0.67855</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.009339344687759876</v>
+        <v>-0.005742805078625679</v>
       </c>
       <c r="D76" t="n">
         <v>0.003449397849606407</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0001635519356870418</v>
+        <v>8.449659467379851e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1739,13 +1739,13 @@
         <v>0.6915100000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.01187242288142443</v>
+        <v>-0.005834298208355904</v>
       </c>
       <c r="D77" t="n">
         <v>0.003211820379634865</v>
       </c>
       <c r="E77" t="n">
-        <v>0.0002275343947588127</v>
+        <v>8.183226150799211e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1756,13 +1756,13 @@
         <v>0.7048300000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.01289318222552538</v>
+        <v>-0.005950288847088814</v>
       </c>
       <c r="D78" t="n">
         <v>0.002976724668475933</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0002518539448242704</v>
+        <v>7.969157030707565e-05</v>
       </c>
     </row>
     <row r="79">
@@ -1773,13 +1773,13 @@
         <v>0.71816</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.01282699126750231</v>
+        <v>-0.006030755117535591</v>
       </c>
       <c r="D79" t="n">
         <v>0.00274985470137797</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0002426381303382217</v>
+        <v>7.709910879200122e-05</v>
       </c>
     </row>
     <row r="80">
@@ -1790,13 +1790,13 @@
         <v>0.73148</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.01260216254740953</v>
+        <v>-0.006010310724377632</v>
       </c>
       <c r="D80" t="n">
         <v>0.002531762765598264</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0002290356953796982</v>
+        <v>7.296701950814898e-05</v>
       </c>
     </row>
     <row r="81">
@@ -1807,13 +1807,13 @@
         <v>0.7448</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.0126221003010869</v>
+        <v>-0.006093727424740791</v>
       </c>
       <c r="D81" t="n">
         <v>0.00232400661790889</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0002233861120340539</v>
+        <v>7.085824641278336e-05</v>
       </c>
     </row>
     <row r="82">
@@ -1824,13 +1824,13 @@
         <v>0.75812</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.01303858775645494</v>
+        <v>-0.006319629028439522</v>
       </c>
       <c r="D82" t="n">
         <v>0.002127162796568808</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0002299999898365403</v>
+        <v>7.134829213502755e-05</v>
       </c>
     </row>
     <row r="83">
@@ -1841,13 +1841,13 @@
         <v>0.77173</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.01358289737254381</v>
+        <v>-0.006828295066952705</v>
       </c>
       <c r="D83" t="n">
         <v>0.001930736590671328</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0002406728387446223</v>
+        <v>7.672063557926002e-05</v>
       </c>
     </row>
     <row r="84">
@@ -1858,13 +1858,13 @@
         <v>0.7853399999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.01411004085093737</v>
+        <v>-0.007388459518551826</v>
       </c>
       <c r="D84" t="n">
         <v>0.001737202160718254</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0002511351110704679</v>
+        <v>8.327770108449843e-05</v>
       </c>
     </row>
     <row r="85">
@@ -1875,13 +1875,13 @@
         <v>0.79895</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.01459936518222094</v>
+        <v>-0.007925765588879585</v>
       </c>
       <c r="D85" t="n">
         <v>0.001549327833389645</v>
       </c>
       <c r="E85" t="n">
-        <v>0.00026078028611243</v>
+        <v>8.977739536072963e-05</v>
       </c>
     </row>
   </sheetData>
